--- a/test-exemple/ig/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/test-exemple/ig/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T12:38:03+00:00</t>
+    <t>2025-05-21T13:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/test-exemple/ig/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T13:02:00+00:00</t>
+    <t>2025-05-21T13:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/test-exemple/ig/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T13:16:37+00:00</t>
+    <t>2025-05-21T13:53:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/test-exemple/ig/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$110</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="666">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:14:19+00:00</t>
+    <t>2025-07-23T09:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -573,6 +573,80 @@
     <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-outcome-measure-r5</t>
   </si>
   <si>
@@ -690,19 +764,6 @@
     <t>ResearchStudy.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>ResearchStudy.identifier:idPrimary.extension</t>
   </si>
   <si>
@@ -710,9 +771,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ResearchStudy.identifier:idPrimary.use</t>
@@ -1662,10 +1720,6 @@
   </si>
   <si>
     <t>ResearchStudy.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
   </si>
   <si>
     <t>Résumé de l'essai (description, durée de participation à l'essai clinique,etc) / Summary Results</t>
@@ -2341,7 +2395,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO106"/>
+  <dimension ref="A1:AO110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2350,7 +2404,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.9140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.44140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.0078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -4158,11 +4212,9 @@
         <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s" s="2">
         <v>178</v>
       </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>80</v>
       </c>
@@ -4171,10 +4223,10 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>80</v>
@@ -4240,19 +4292,19 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -4261,7 +4313,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4272,14 +4324,12 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
@@ -4288,10 +4338,10 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
@@ -4300,7 +4350,7 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>185</v>
@@ -4345,19 +4395,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4389,26 +4439,24 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -4417,7 +4465,7 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>190</v>
@@ -4425,14 +4473,16 @@
       <c r="M18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>80</v>
@@ -4474,19 +4524,19 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4495,7 +4545,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4506,46 +4556,42 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4581,31 +4627,31 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4625,12 +4671,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4642,27 +4690,25 @@
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4698,19 +4744,19 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4722,33 +4768,33 @@
         <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
@@ -4758,7 +4804,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>91</v>
@@ -4767,21 +4813,19 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4829,7 +4873,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4841,32 +4885,34 @@
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4875,10 +4921,10 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
@@ -4887,13 +4933,13 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4944,19 +4990,19 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4965,7 +5011,7 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4976,10 +5022,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4996,7 +5042,7 @@
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>80</v>
@@ -5005,15 +5051,17 @@
         <v>138</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -5061,7 +5109,7 @@
         <v>144</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5093,10 +5141,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5104,34 +5152,32 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5141,7 +5187,7 @@
         <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>80</v>
@@ -5156,37 +5202,37 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>102</v>
@@ -5195,29 +5241,31 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5229,7 +5277,7 @@
         <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
@@ -5238,19 +5286,17 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5275,13 +5321,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5299,13 +5345,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>102</v>
@@ -5314,27 +5360,27 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5354,23 +5400,19 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5382,7 +5424,7 @@
         <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>80</v>
@@ -5418,7 +5460,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5427,19 +5469,19 @@
         <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5450,21 +5492,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5473,19 +5515,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5499,7 +5541,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -5523,40 +5565,40 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5567,10 +5609,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5578,7 +5620,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -5587,24 +5629,26 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5613,7 +5657,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5628,13 +5672,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5652,7 +5696,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5664,16 +5708,16 @@
         <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>104</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5684,10 +5728,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5707,19 +5751,23 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5743,13 +5791,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5767,7 +5815,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5776,19 +5824,19 @@
         <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5799,21 +5847,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5822,21 +5870,23 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5848,7 +5898,7 @@
         <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>80</v>
@@ -5872,40 +5922,40 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5916,10 +5966,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5942,16 +5992,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5965,7 +6015,7 @@
         <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>80</v>
@@ -6001,7 +6051,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6010,7 +6060,7 @@
         <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>103</v>
@@ -6019,10 +6069,10 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6033,10 +6083,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6059,24 +6109,22 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q32" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>80</v>
       </c>
@@ -6120,7 +6168,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6129,19 +6177,19 @@
         <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6152,10 +6200,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6175,20 +6223,18 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6237,7 +6283,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6246,19 +6292,19 @@
         <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>111</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6269,16 +6315,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6288,27 +6332,27 @@
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6344,19 +6388,19 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6368,30 +6412,30 @@
         <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6411,18 +6455,20 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6471,7 +6517,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6480,19 +6526,19 @@
         <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6503,21 +6549,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6526,25 +6572,27 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="R36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6576,40 +6624,40 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6620,10 +6668,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6631,7 +6679,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6640,26 +6688,24 @@
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>113</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6668,7 +6714,7 @@
         <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>80</v>
@@ -6683,13 +6729,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6707,7 +6753,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6719,16 +6765,16 @@
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>104</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6739,12 +6785,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6753,10 +6801,10 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
@@ -6765,19 +6813,17 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6802,13 +6848,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6826,13 +6872,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>102</v>
@@ -6841,27 +6887,27 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6881,23 +6927,19 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6909,7 +6951,7 @@
         <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>80</v>
@@ -6945,7 +6987,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6954,19 +6996,19 @@
         <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6977,21 +7019,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -7000,19 +7042,19 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7026,7 +7068,7 @@
         <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>80</v>
@@ -7050,40 +7092,40 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -7094,10 +7136,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7105,7 +7147,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -7114,24 +7156,26 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -7140,7 +7184,7 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>80</v>
@@ -7155,13 +7199,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7179,7 +7223,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7191,16 +7235,16 @@
         <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>273</v>
+        <v>104</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7211,10 +7255,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7237,18 +7281,20 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7272,13 +7318,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7296,7 +7342,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7308,16 +7354,16 @@
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7328,10 +7374,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7345,7 +7391,7 @@
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -7354,18 +7400,20 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7377,7 +7425,7 @@
         <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>80</v>
@@ -7413,7 +7461,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7428,16 +7476,16 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>111</v>
+        <v>274</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7445,10 +7493,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7459,7 +7507,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7471,16 +7519,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7494,7 +7542,7 @@
         <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>80</v>
@@ -7530,31 +7578,31 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7562,21 +7610,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7588,20 +7636,18 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7649,28 +7695,28 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7681,10 +7727,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7692,31 +7738,31 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>113</v>
+        <v>319</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7742,13 +7788,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7766,10 +7812,10 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>90</v>
@@ -7778,30 +7824,30 @@
         <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7824,16 +7870,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7859,13 +7905,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7883,7 +7929,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7898,16 +7944,16 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7915,10 +7961,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7929,10 +7975,10 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -7941,16 +7987,16 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7976,11 +8022,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7998,31 +8046,31 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8030,14 +8078,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8047,7 +8095,7 @@
         <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
@@ -8056,18 +8104,20 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8091,11 +8141,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -8113,7 +8165,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8125,19 +8177,19 @@
         <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8145,10 +8197,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8156,31 +8208,31 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8206,13 +8258,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8230,13 +8282,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>102</v>
@@ -8245,27 +8297,27 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8276,7 +8328,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>91</v>
@@ -8288,16 +8340,16 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8323,14 +8375,14 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8338,22 +8390,22 @@
         <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>102</v>
@@ -8362,31 +8414,29 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8395,7 +8445,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>91</v>
@@ -8407,16 +8457,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8442,13 +8492,11 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8466,13 +8514,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>102</v>
@@ -8481,27 +8529,27 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8512,27 +8560,29 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>385</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8542,7 +8592,7 @@
         <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>80</v>
@@ -8557,13 +8607,11 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8581,31 +8629,31 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>384</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8613,14 +8661,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8636,19 +8684,19 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>392</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>141</v>
+        <v>372</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8674,10 +8722,10 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8686,19 +8734,19 @@
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>221</v>
+        <v>390</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8710,30 +8758,30 @@
         <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8747,7 +8795,7 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
@@ -8756,20 +8804,18 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>255</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8793,13 +8839,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8808,16 +8854,16 @@
         <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8832,29 +8878,31 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8863,27 +8911,29 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>215</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8908,13 +8958,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8932,53 +8982,53 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>217</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8990,17 +9040,15 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9010,7 +9058,7 @@
         <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>80</v>
@@ -9037,31 +9085,31 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9070,7 +9118,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9081,21 +9129,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9104,23 +9152,21 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>411</v>
+        <v>139</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>412</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9129,7 +9175,7 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>80</v>
@@ -9156,40 +9202,40 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>416</v>
+        <v>187</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>418</v>
+        <v>104</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9200,10 +9246,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9214,7 +9260,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9226,18 +9272,20 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>416</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9285,13 +9333,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>102</v>
@@ -9303,10 +9351,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9317,10 +9365,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9340,23 +9388,19 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>180</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9404,7 +9448,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9413,19 +9457,19 @@
         <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>434</v>
+        <v>111</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9436,21 +9480,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9459,23 +9503,21 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>139</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
+        <v>240</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9511,40 +9553,40 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>187</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>442</v>
+        <v>104</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9555,10 +9597,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9581,19 +9623,19 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>445</v>
+        <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9603,7 +9645,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9642,7 +9684,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9660,10 +9702,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9674,10 +9716,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9700,20 +9742,18 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9761,7 +9801,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9779,10 +9819,10 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9793,14 +9833,12 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9809,10 +9847,10 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -9821,18 +9859,20 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9856,13 +9896,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9880,13 +9920,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>102</v>
@@ -9895,27 +9935,27 @@
         <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>357</v>
+        <v>452</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>358</v>
+        <v>453</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9935,19 +9975,23 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>215</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9956,7 +10000,7 @@
         <v>80</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>80</v>
@@ -9995,7 +10039,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>217</v>
+        <v>459</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10004,19 +10048,19 @@
         <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -10027,21 +10071,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -10050,21 +10094,23 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>138</v>
+        <v>464</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>139</v>
+        <v>465</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>466</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10100,40 +10146,40 @@
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>469</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>104</v>
+        <v>471</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -10144,10 +10190,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10158,7 +10204,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10170,19 +10216,19 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>397</v>
+        <v>179</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10231,13 +10277,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>402</v>
+        <v>478</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>102</v>
@@ -10249,10 +10295,10 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>404</v>
+        <v>480</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10263,24 +10309,26 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -10289,20 +10337,18 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10326,13 +10372,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10350,13 +10396,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>459</v>
+        <v>398</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>102</v>
@@ -10365,27 +10411,27 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>461</v>
+        <v>377</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10396,25 +10442,25 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>471</v>
+        <v>179</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>472</v>
+        <v>180</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>181</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10426,7 +10472,7 @@
         <v>80</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>80</v>
@@ -10465,22 +10511,22 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>182</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -10489,7 +10535,7 @@
         <v>111</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10497,21 +10543,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>476</v>
+        <v>413</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10523,15 +10569,17 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10568,31 +10616,31 @@
         <v>80</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10601,7 +10649,7 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10612,14 +10660,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10635,21 +10683,23 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>220</v>
+        <v>418</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10685,19 +10735,19 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>221</v>
+        <v>421</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10709,16 +10759,16 @@
         <v>102</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>104</v>
+        <v>423</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10729,44 +10779,46 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K72" t="s" s="2">
-        <v>480</v>
+        <v>179</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10814,28 +10866,28 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>221</v>
+        <v>478</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10846,14 +10898,12 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10862,7 +10912,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>91</v>
@@ -10871,16 +10921,16 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10931,7 +10981,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>221</v>
+        <v>489</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10943,19 +10993,19 @@
         <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10963,14 +11013,12 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10982,7 +11030,7 @@
         <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
@@ -10991,13 +11039,13 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>490</v>
+        <v>179</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>491</v>
+        <v>180</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>492</v>
+        <v>181</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11048,19 +11096,19 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11069,7 +11117,7 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11080,26 +11128,24 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>80</v>
@@ -11108,15 +11154,17 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>495</v>
+        <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>496</v>
+        <v>139</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11153,19 +11201,19 @@
         <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11186,7 +11234,7 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11197,12 +11245,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="B76" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11214,26 +11264,24 @@
         <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>214</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N76" t="s" s="2">
         <v>501</v>
       </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11282,19 +11330,19 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>502</v>
+        <v>187</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11303,7 +11351,7 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -11314,12 +11362,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="B77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11328,16 +11378,16 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>504</v>
@@ -11397,7 +11447,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>507</v>
+        <v>187</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11409,16 +11459,16 @@
         <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>508</v>
+        <v>146</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11429,12 +11479,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11443,7 +11495,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>91</v>
@@ -11455,17 +11507,15 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11514,7 +11564,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>511</v>
+        <v>187</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11526,19 +11576,19 @@
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>517</v>
+        <v>80</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11546,12 +11596,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11560,29 +11612,27 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>236</v>
+        <v>514</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11607,10 +11657,10 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>521</v>
+        <v>80</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>80</v>
@@ -11631,7 +11681,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>518</v>
+        <v>187</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11643,19 +11693,19 @@
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11663,10 +11713,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11677,10 +11727,10 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>80</v>
@@ -11689,16 +11739,16 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>353</v>
+        <v>520</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11724,13 +11774,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11748,13 +11798,13 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>102</v>
@@ -11763,13 +11813,13 @@
         <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11780,10 +11830,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11794,29 +11844,27 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K81" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11865,31 +11913,31 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>527</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>111</v>
+        <v>529</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>536</v>
+        <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11897,14 +11945,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>538</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11920,19 +11968,19 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11982,7 +12030,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11994,41 +12042,41 @@
         <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>544</v>
+        <v>111</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -12040,16 +12088,16 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12075,10 +12123,10 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>80</v>
@@ -12099,42 +12147,42 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>552</v>
+        <v>376</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>553</v>
+        <v>377</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>555</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12145,27 +12193,29 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>215</v>
+        <v>544</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12190,13 +12240,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -12214,28 +12264,28 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>217</v>
+        <v>543</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
@@ -12246,24 +12296,24 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>80</v>
@@ -12272,16 +12322,16 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>139</v>
+        <v>550</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>220</v>
+        <v>551</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>141</v>
+        <v>552</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12319,43 +12369,43 @@
         <v>80</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>221</v>
+        <v>549</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>553</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12363,24 +12413,24 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>80</v>
@@ -12389,16 +12439,16 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>281</v>
+        <v>557</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="N86" t="s" s="2">
-        <v>284</v>
+        <v>560</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12448,46 +12498,46 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>285</v>
+        <v>555</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>288</v>
+        <v>562</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12497,7 +12547,7 @@
         <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>80</v>
@@ -12506,24 +12556,22 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>292</v>
+        <v>568</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q87" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12567,7 +12615,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>295</v>
+        <v>565</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12576,33 +12624,33 @@
         <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>296</v>
+        <v>570</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>297</v>
+        <v>571</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>80</v>
+        <v>572</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12613,7 +12661,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12622,20 +12670,18 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>563</v>
+        <v>180</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12684,7 +12730,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>562</v>
+        <v>182</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12693,44 +12739,44 @@
         <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>566</v>
+        <v>111</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>567</v>
+        <v>80</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12739,19 +12785,19 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>570</v>
+        <v>138</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>571</v>
+        <v>139</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>572</v>
+        <v>240</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>330</v>
+        <v>141</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12789,46 +12835,46 @@
         <v>80</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>569</v>
+        <v>187</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>573</v>
+        <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>574</v>
+        <v>104</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" hidden="true">
@@ -12847,10 +12893,10 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>80</v>
@@ -12859,16 +12905,16 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>578</v>
-      </c>
       <c r="M90" t="s" s="2">
-        <v>579</v>
+        <v>302</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12918,42 +12964,42 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>576</v>
+        <v>304</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>574</v>
+        <v>307</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>582</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12967,7 +13013,7 @@
         <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
@@ -12976,22 +13022,24 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>585</v>
+        <v>311</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="R91" t="s" s="2">
         <v>80</v>
       </c>
@@ -13011,13 +13059,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13035,7 +13083,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>583</v>
+        <v>314</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13044,33 +13092,33 @@
         <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>588</v>
+        <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>590</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13081,7 +13129,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13090,19 +13138,19 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>592</v>
+        <v>319</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>595</v>
+        <v>349</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13152,42 +13200,42 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>80</v>
+        <v>586</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13198,7 +13246,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -13207,18 +13255,20 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13267,42 +13317,42 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>80</v>
+        <v>586</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13313,27 +13363,29 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>214</v>
+        <v>595</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>215</v>
+        <v>596</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13382,53 +13434,53 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>217</v>
+        <v>594</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13437,19 +13489,19 @@
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>139</v>
+        <v>602</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>220</v>
+        <v>603</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>141</v>
+        <v>372</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13475,70 +13527,68 @@
         <v>80</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>80</v>
+        <v>604</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>80</v>
+        <v>605</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>221</v>
+        <v>601</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>80</v>
+        <v>606</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>607</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
         <v>80</v>
       </c>
@@ -13550,7 +13600,7 @@
         <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>80</v>
@@ -13559,15 +13609,17 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13616,7 +13668,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>221</v>
+        <v>609</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13628,16 +13680,16 @@
         <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>80</v>
+        <v>614</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
@@ -13648,14 +13700,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>612</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13668,26 +13720,22 @@
         <v>80</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>138</v>
+        <v>617</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
       </c>
@@ -13735,7 +13783,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13747,19 +13795,19 @@
         <v>102</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>80</v>
+        <v>620</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>80</v>
+        <v>621</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -13767,10 +13815,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13778,7 +13826,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>90</v>
@@ -13793,17 +13841,15 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>617</v>
+        <v>180</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13852,22 +13898,22 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>616</v>
+        <v>182</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>619</v>
+        <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>80</v>
@@ -13876,7 +13922,7 @@
         <v>111</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>620</v>
+        <v>80</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -13884,21 +13930,21 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -13910,16 +13956,16 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>622</v>
+        <v>139</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>623</v>
+        <v>240</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>353</v>
+        <v>141</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13957,43 +14003,43 @@
         <v>80</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>621</v>
+        <v>187</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>358</v>
+        <v>104</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>625</v>
+        <v>80</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14001,12 +14047,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="D100" t="s" s="2">
         <v>80</v>
       </c>
@@ -14015,10 +14063,10 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>80</v>
@@ -14027,7 +14075,7 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>214</v>
+        <v>626</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>627</v>
@@ -14035,9 +14083,7 @@
       <c r="M100" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="N100" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14086,31 +14132,31 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>626</v>
+        <v>187</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>629</v>
+        <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>630</v>
+        <v>80</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14118,14 +14164,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14138,22 +14184,26 @@
         <v>80</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>599</v>
+        <v>138</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="M101" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>80</v>
       </c>
@@ -14201,7 +14251,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14213,16 +14263,16 @@
         <v>102</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>80</v>
@@ -14233,10 +14283,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14244,7 +14294,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>90</v>
@@ -14259,15 +14309,17 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>215</v>
+        <v>635</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14316,22 +14368,22 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>217</v>
+        <v>634</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>80</v>
+        <v>637</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>80</v>
@@ -14340,7 +14392,7 @@
         <v>111</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>80</v>
+        <v>638</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14348,21 +14400,21 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>80</v>
@@ -14374,16 +14426,16 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>139</v>
+        <v>640</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>220</v>
+        <v>641</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>141</v>
+        <v>372</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14421,43 +14473,43 @@
         <v>80</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>221</v>
+        <v>639</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>80</v>
+        <v>642</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>80</v>
+        <v>643</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
@@ -14465,46 +14517,44 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>612</v>
+        <v>80</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>80</v>
       </c>
@@ -14552,31 +14602,31 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>80</v>
+        <v>647</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>80</v>
+        <v>648</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>80</v>
@@ -14584,10 +14634,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14598,7 +14648,7 @@
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>80</v>
@@ -14610,17 +14660,15 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>214</v>
+        <v>617</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -14669,13 +14717,13 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>102</v>
@@ -14684,7 +14732,7 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>80</v>
@@ -14701,10 +14749,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14727,17 +14775,15 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>643</v>
+        <v>180</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -14762,13 +14808,13 @@
         <v>80</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>645</v>
+        <v>80</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>646</v>
+        <v>80</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
@@ -14786,7 +14832,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>642</v>
+        <v>182</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14795,29 +14841,499 @@
         <v>90</v>
       </c>
       <c r="AI106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ106" t="s" s="2">
+      <c r="AJ107" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK106" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO106" t="s" s="2">
+      <c r="AK109" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO110" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO106">
+  <autoFilter ref="A1:AO110">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14827,7 +15343,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI109">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
